--- a/Administración/HORARIOS ADMON.xlsx
+++ b/Administración/HORARIOS ADMON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E21A34E6-C727-4140-9CB2-4119B2FB4907}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE69D136-CB68-4535-8A47-4E6ECCF9498D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="279">
   <si>
     <t>HORA</t>
   </si>
@@ -346,6 +346,531 @@
   </si>
   <si>
     <t>Departamento servidor</t>
+  </si>
+  <si>
+    <t>401H</t>
+  </si>
+  <si>
+    <t>CP901(02)</t>
+  </si>
+  <si>
+    <t>303H</t>
+  </si>
+  <si>
+    <t>AE701(01)</t>
+  </si>
+  <si>
+    <t>306H</t>
+  </si>
+  <si>
+    <t>AE701(02)</t>
+  </si>
+  <si>
+    <t>AE701(03)</t>
+  </si>
+  <si>
+    <t>305H</t>
+  </si>
+  <si>
+    <t>AE202(01)</t>
+  </si>
+  <si>
+    <t>203H</t>
+  </si>
+  <si>
+    <t>AE202(02)</t>
+  </si>
+  <si>
+    <t>AE202(03)</t>
+  </si>
+  <si>
+    <t>304H</t>
+  </si>
+  <si>
+    <t>FACE201(04)</t>
+  </si>
+  <si>
+    <t>307H</t>
+  </si>
+  <si>
+    <t>FACE201(05)</t>
+  </si>
+  <si>
+    <t>FACE201(06)</t>
+  </si>
+  <si>
+    <t>402H</t>
+  </si>
+  <si>
+    <t>GRUPOS DESDE 01 A 08 PENDIENTE 4</t>
+  </si>
+  <si>
+    <t>AE301(01)</t>
+  </si>
+  <si>
+    <t>AE301(02)</t>
+  </si>
+  <si>
+    <t>AE301(03)</t>
+  </si>
+  <si>
+    <t>AE302(01)</t>
+  </si>
+  <si>
+    <t>AE302(02)</t>
+  </si>
+  <si>
+    <t>AE302(03)</t>
+  </si>
+  <si>
+    <t>302H</t>
+  </si>
+  <si>
+    <t>AE401(01)</t>
+  </si>
+  <si>
+    <t>AE401(02)</t>
+  </si>
+  <si>
+    <t>AE401802)</t>
+  </si>
+  <si>
+    <t>204H</t>
+  </si>
+  <si>
+    <t>AE401(03)</t>
+  </si>
+  <si>
+    <t>AE402(01)</t>
+  </si>
+  <si>
+    <t>AE402(02)</t>
+  </si>
+  <si>
+    <t>AE402(03)</t>
+  </si>
+  <si>
+    <t>301H</t>
+  </si>
+  <si>
+    <t>AE403(01)</t>
+  </si>
+  <si>
+    <t>AE403(02)</t>
+  </si>
+  <si>
+    <t>AE503(01)</t>
+  </si>
+  <si>
+    <t>AE503(02)</t>
+  </si>
+  <si>
+    <t>AE503(03)</t>
+  </si>
+  <si>
+    <t>AE537(01)</t>
+  </si>
+  <si>
+    <t>403H</t>
+  </si>
+  <si>
+    <t>AE537(02)</t>
+  </si>
+  <si>
+    <t>AE537(03)</t>
+  </si>
+  <si>
+    <t>AE108(01)</t>
+  </si>
+  <si>
+    <t>AE108(02)</t>
+  </si>
+  <si>
+    <t>AE108(03)</t>
+  </si>
+  <si>
+    <t>AE108(04)</t>
+  </si>
+  <si>
+    <t>AE502(01)</t>
+  </si>
+  <si>
+    <t>AE502(02)</t>
+  </si>
+  <si>
+    <t>AE502(03)</t>
+  </si>
+  <si>
+    <t>205H</t>
+  </si>
+  <si>
+    <t>AE606(01)</t>
+  </si>
+  <si>
+    <t>AE606(02)</t>
+  </si>
+  <si>
+    <t>AE606(03)</t>
+  </si>
+  <si>
+    <t>201H</t>
+  </si>
+  <si>
+    <t>AE607 (01) MODELOS ADMINISTRATIVOS</t>
+  </si>
+  <si>
+    <t>AE607 (02) HISTORIA EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>AE607(03) GESTION Y CONTROL DE CALIDAD</t>
+  </si>
+  <si>
+    <t>AE607 (04) CONTRATACIÓN MODERNA</t>
+  </si>
+  <si>
+    <t>AE607 (05) MERCADEO RELACIONAL CRM</t>
+  </si>
+  <si>
+    <t>AE607(01)</t>
+  </si>
+  <si>
+    <t>HOMOLOGO AE603 (01)</t>
+  </si>
+  <si>
+    <t>AE607(02)</t>
+  </si>
+  <si>
+    <t>HOMOLOGO AE605 (01)</t>
+  </si>
+  <si>
+    <t>AE607(03)</t>
+  </si>
+  <si>
+    <t>AE607(04)</t>
+  </si>
+  <si>
+    <t>404H</t>
+  </si>
+  <si>
+    <t>AE606(05)</t>
+  </si>
+  <si>
+    <t>HOMOLOGO AE604 (01)</t>
+  </si>
+  <si>
+    <t>AE607 (06) INVERSIONES</t>
+  </si>
+  <si>
+    <t>AE607(06)</t>
+  </si>
+  <si>
+    <t>AE109(01)</t>
+  </si>
+  <si>
+    <t>AE109(02)</t>
+  </si>
+  <si>
+    <t>AE109(03)</t>
+  </si>
+  <si>
+    <t>AE109(04)</t>
+  </si>
+  <si>
+    <t>AE671(01)</t>
+  </si>
+  <si>
+    <t>AE671(02)</t>
+  </si>
+  <si>
+    <t>AE671(03)</t>
+  </si>
+  <si>
+    <t>AE671(04)</t>
+  </si>
+  <si>
+    <t>AE671(05)</t>
+  </si>
+  <si>
+    <t>AE601(01)</t>
+  </si>
+  <si>
+    <t>AE601(02)</t>
+  </si>
+  <si>
+    <t>AE601(03)</t>
+  </si>
+  <si>
+    <t>AE601(04)</t>
+  </si>
+  <si>
+    <t>AE428(01)</t>
+  </si>
+  <si>
+    <t>AE428(02)</t>
+  </si>
+  <si>
+    <t>405H</t>
+  </si>
+  <si>
+    <t>AE428(03)</t>
+  </si>
+  <si>
+    <t>AE428(04)</t>
+  </si>
+  <si>
+    <t>AE704 (01) GERENCIA DE VENTAS</t>
+  </si>
+  <si>
+    <t>AE704 (02) CREATIVIDAD EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>AE704 (03) ASEGURAMIENTO DE LA CALIDAD</t>
+  </si>
+  <si>
+    <t>AE704 (04) F  Y E COMPETENCIA LABORAL</t>
+  </si>
+  <si>
+    <t>AE704 (05) HABILIDADES GERENCIALES</t>
+  </si>
+  <si>
+    <t>AE704(01)</t>
+  </si>
+  <si>
+    <t>AE704(02)</t>
+  </si>
+  <si>
+    <t>AE704(03)</t>
+  </si>
+  <si>
+    <t>AE704(04)</t>
+  </si>
+  <si>
+    <t>AE704(05)</t>
+  </si>
+  <si>
+    <t>HOMOLOGA AE605B</t>
+  </si>
+  <si>
+    <t>HOMOLOGA AE604B</t>
+  </si>
+  <si>
+    <t>HOMOLOGA AE603B</t>
+  </si>
+  <si>
+    <t>AE702(01)</t>
+  </si>
+  <si>
+    <t>AE702(02)</t>
+  </si>
+  <si>
+    <t>AE702(03)</t>
+  </si>
+  <si>
+    <t>AE808(01)</t>
+  </si>
+  <si>
+    <t>AE808(02)</t>
+  </si>
+  <si>
+    <t>AE808(03)</t>
+  </si>
+  <si>
+    <t>406H</t>
+  </si>
+  <si>
+    <t>AE808(04)</t>
+  </si>
+  <si>
+    <t>AE808(05)</t>
+  </si>
+  <si>
+    <t>AE810 (01) MIX DE COMUNICACIONES</t>
+  </si>
+  <si>
+    <t>HOMOLOGA AE604C</t>
+  </si>
+  <si>
+    <t>AE810 (02) SEGURIDAD SOCIAL EN COLOMBIA</t>
+  </si>
+  <si>
+    <t>AE810 (03) SISTEMA DE CALIDAD  (BMP, HACCP)</t>
+  </si>
+  <si>
+    <t>AE810 (04) CREACIÓN DE EMPRESAS</t>
+  </si>
+  <si>
+    <t>HOMOLOGA AE605C</t>
+  </si>
+  <si>
+    <t>AE810 (05) CREACIÓN DE EMPRESAS</t>
+  </si>
+  <si>
+    <t>AE805 (06) PLANEACIÓN ESTRATEGICA</t>
+  </si>
+  <si>
+    <t>AE806(01)</t>
+  </si>
+  <si>
+    <t>AE806(02)</t>
+  </si>
+  <si>
+    <t>AE806(03)</t>
+  </si>
+  <si>
+    <t>AE806(04)</t>
+  </si>
+  <si>
+    <t>AE807(01)</t>
+  </si>
+  <si>
+    <t>AE807(02)</t>
+  </si>
+  <si>
+    <t>AE807(03)</t>
+  </si>
+  <si>
+    <t>AE807(04)</t>
+  </si>
+  <si>
+    <t>AE810(01)</t>
+  </si>
+  <si>
+    <t>AE810(02)</t>
+  </si>
+  <si>
+    <t>AE810(03)</t>
+  </si>
+  <si>
+    <t>AE810(04)</t>
+  </si>
+  <si>
+    <t>407H</t>
+  </si>
+  <si>
+    <t>AE810(05)</t>
+  </si>
+  <si>
+    <t>AE810(06)</t>
+  </si>
+  <si>
+    <t>AE110(01)</t>
+  </si>
+  <si>
+    <t>AE110(02)</t>
+  </si>
+  <si>
+    <t>AE110(03)</t>
+  </si>
+  <si>
+    <t>AE110(04)</t>
+  </si>
+  <si>
+    <t>AE110(05)</t>
+  </si>
+  <si>
+    <t>CP901(01)</t>
+  </si>
+  <si>
+    <t>AE803(01)</t>
+  </si>
+  <si>
+    <t>AE803(02)</t>
+  </si>
+  <si>
+    <t>AE803(03)</t>
+  </si>
+  <si>
+    <t>AE803(04)</t>
+  </si>
+  <si>
+    <t>AE901(01)</t>
+  </si>
+  <si>
+    <t>AE901(02)</t>
+  </si>
+  <si>
+    <t>AE901(03)</t>
+  </si>
+  <si>
+    <t>AE901(04)</t>
+  </si>
+  <si>
+    <t>AE904(01)</t>
+  </si>
+  <si>
+    <t>AE904(02)</t>
+  </si>
+  <si>
+    <t>AE905(01)</t>
+  </si>
+  <si>
+    <t>206H</t>
+  </si>
+  <si>
+    <t>AE010(01)</t>
+  </si>
+  <si>
+    <t>MT201C(04)</t>
+  </si>
+  <si>
+    <t>MT201C(05)</t>
+  </si>
+  <si>
+    <t>MT201C(06)</t>
+  </si>
+  <si>
+    <t>207H</t>
+  </si>
+  <si>
+    <t>GRUPOS 04 A 06</t>
+  </si>
+  <si>
+    <t>PG301F(04)</t>
+  </si>
+  <si>
+    <t>PG301F(05)</t>
+  </si>
+  <si>
+    <t>PG301F(06)</t>
+  </si>
+  <si>
+    <t>HM301F(04)</t>
+  </si>
+  <si>
+    <t>HM301F(05)</t>
+  </si>
+  <si>
+    <t>HM301F(06)</t>
+  </si>
+  <si>
+    <t>DR551(04)</t>
+  </si>
+  <si>
+    <t>DR551(05)</t>
+  </si>
+  <si>
+    <t>DR551(06)</t>
+  </si>
+  <si>
+    <t>MT305(04)</t>
+  </si>
+  <si>
+    <t>MT304C(05)</t>
+  </si>
+  <si>
+    <t>MT304C(06)</t>
+  </si>
+  <si>
+    <t>DR552(01)</t>
+  </si>
+  <si>
+    <t>DR552(03)</t>
+  </si>
+  <si>
+    <t>DR552(02)</t>
+  </si>
+  <si>
+    <t>01,02,03</t>
   </si>
 </sst>
 </file>
@@ -383,7 +908,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -687,11 +1212,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -722,12 +1269,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -761,9 +1302,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,14 +1310,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -798,6 +1416,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1121,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB25AAA-D2BB-4E62-8CC7-02DE57045219}">
   <dimension ref="A2:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -1145,63 +1778,63 @@
   <sheetData>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="68" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="40"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="69"/>
     </row>
     <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="68" t="s">
         <v>18</v>
       </c>
       <c r="P5" s="8" t="s">
@@ -1213,27 +1846,27 @@
       <c r="R5" s="11">
         <v>35</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="18">
         <v>12</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
       <c r="P6" s="9" t="s">
         <v>26</v>
       </c>
@@ -1333,7 +1966,7 @@
       <c r="S9" s="9">
         <v>11</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="T9" s="17" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1611,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C7EF15-3D56-4548-966A-D4C6D4BC0FE3}">
   <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,74 +2260,74 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="29"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="30" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="27" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1720,8 +2353,8 @@
       <c r="P6" s="8">
         <v>0</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="31"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="28"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1739,16 +2372,16 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="19">
         <v>4</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="57">
         <v>10</v>
       </c>
-      <c r="R7" s="31">
+      <c r="R7" s="63">
         <v>1</v>
       </c>
     </row>
@@ -1770,8 +2403,8 @@
       <c r="M8" s="6"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="31"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="28"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1791,8 +2424,8 @@
       <c r="M9" s="6"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="31"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="28"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1812,84 +2445,88 @@
       <c r="M10" s="6"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="31"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="Q10" s="15"/>
+      <c r="R10" s="28"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="31"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="28"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="31"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="28"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="M14" s="61" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1905,8 +2542,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="L15" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="M15" s="62" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1925,39 +2566,39 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -2037,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21AB377-5475-4309-827B-E5C4DEE4CA98}">
   <dimension ref="A3:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,80 +2690,81 @@
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="20" max="20" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="68" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="40"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="69"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2136,20 +2778,24 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="20">
         <v>3</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="48">
         <v>35</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="49">
         <v>3</v>
       </c>
     </row>
@@ -2161,35 +2807,54 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="19">
         <v>4</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="45">
         <v>35</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="T7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2198,125 +2863,178 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="19">
         <v>3</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="45">
         <v>35</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="19">
         <v>12</v>
       </c>
-      <c r="T8" s="19" t="s">
-        <v>92</v>
+      <c r="T8" s="17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="19">
         <v>2</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="45">
         <v>35</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="19">
         <v>3</v>
+      </c>
+      <c r="T9" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="19">
         <v>2</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="45">
         <v>35</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="T10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="P11" s="9" t="s">
+      <c r="B11" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="P11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="19">
         <v>2</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="45">
         <v>35</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="T11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="P12" s="10" t="s">
         <v>40</v>
       </c>
@@ -2327,56 +3045,104 @@
       <c r="S12" s="10">
         <v>1</v>
       </c>
-      <c r="T12" s="19" t="s">
+      <c r="T12" s="47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -2386,52 +3152,84 @@
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -2441,12 +3239,20 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
@@ -2454,16 +3260,34 @@
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>260</v>
+      </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
@@ -2471,16 +3295,34 @@
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
@@ -2512,8 +3354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B34897-C3CC-413D-A044-78825B535787}">
   <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,132 +3370,142 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="68" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="40"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>35</v>
-      </c>
-      <c r="R6" s="20">
-        <v>3</v>
-      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="49"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="19">
         <v>3</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="45">
         <v>35</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="19">
         <v>3</v>
       </c>
     </row>
@@ -2665,15 +3517,23 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="50" t="s">
         <v>45</v>
       </c>
       <c r="P8" s="9">
@@ -2690,28 +3550,40 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="19">
         <v>4</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="45">
         <v>35</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="19">
         <v>3</v>
       </c>
     </row>
@@ -2719,76 +3591,96 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="19">
         <v>4</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="45">
         <v>35</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="21" t="s">
+      <c r="B11" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="O11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="19">
         <v>2</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="45">
         <v>35</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="O12" s="10" t="s">
         <v>41</v>
       </c>
@@ -2799,45 +3691,57 @@
       <c r="R12" s="7">
         <v>1</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2845,12 +3749,24 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -2862,65 +3778,125 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
@@ -2932,10 +3908,18 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -2949,10 +3933,18 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>261</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -2986,8 +3978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98090E5B-EC8F-4FB3-8BA2-B9CF7E7F622B}">
   <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3002,76 +3994,76 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="68" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="40"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3079,26 +4071,42 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="20">
         <v>4</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="48">
         <v>35</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="49">
         <v>3</v>
       </c>
     </row>
@@ -3108,14 +4116,30 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="O7" s="9" t="s">
@@ -3130,6 +4154,9 @@
       <c r="R7" s="9">
         <v>3</v>
       </c>
+      <c r="S7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -3137,26 +4164,34 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="19">
         <v>4</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="45">
         <v>35</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="19">
         <v>3</v>
       </c>
     </row>
@@ -3166,10 +4201,18 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -3205,35 +4248,29 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>35</v>
-      </c>
-      <c r="R10" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
       <c r="O11" s="9" t="s">
         <v>53</v>
       </c>
@@ -3248,50 +4285,74 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="14" t="s">
+      <c r="B12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="O12" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="51">
         <v>2</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="52">
         <v>35</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="O13" s="10" t="s">
         <v>55</v>
       </c>
@@ -3299,29 +4360,29 @@
         <v>0</v>
       </c>
       <c r="Q13" s="13"/>
-      <c r="R13" s="23">
+      <c r="R13" s="21">
         <v>1</v>
       </c>
-      <c r="S13" s="19" t="s">
+      <c r="S13" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3357,54 +4418,94 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
@@ -3470,8 +4571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20AA679-064E-4D53-A849-351642C46016}">
   <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,91 +4587,111 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="68" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="40"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="8" t="s">
@@ -3582,7 +4703,7 @@
       <c r="Q6" s="11">
         <v>35</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="18">
         <v>3</v>
       </c>
     </row>
@@ -3590,31 +4711,51 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="19">
         <v>4</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="45">
         <v>35</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="53">
         <v>3</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="23" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3622,31 +4763,47 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="19">
         <v>3</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="45">
         <v>35</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="53">
         <v>3</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="23" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3656,29 +4813,37 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="19">
         <v>3</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="45">
         <v>35</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="53">
         <v>4</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="23" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3707,97 +4872,121 @@
       <c r="Q10" s="12">
         <v>35</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="22">
         <v>3</v>
       </c>
-      <c r="S10" s="26"/>
-    </row>
-    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="S10" s="24"/>
+    </row>
+    <row r="11" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="O11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="19">
         <v>3</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="45">
         <v>35</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="53">
         <v>3</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="23" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3805,16 +4994,28 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -3822,50 +5023,82 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="J16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -3873,14 +5106,30 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
@@ -3888,14 +5137,26 @@
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -3907,12 +5168,20 @@
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -3944,10 +5213,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE898E07-6592-4066-911E-CF5F3C3D4840}">
-  <dimension ref="A3:S21"/>
+  <dimension ref="A3:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3958,332 +5227,469 @@
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="19" max="19" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="68" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="40"/>
-    </row>
-    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="69"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
+      <c r="B6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="20">
         <v>4</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="56">
         <v>35</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="49">
         <v>3</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="55" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="O7" s="9" t="s">
         <v>64</v>
       </c>
       <c r="P7" s="9">
         <v>3</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="55" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
+      <c r="H8" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="19">
         <v>3</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="57">
         <v>10</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="19">
         <v>6</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="55" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="19">
         <v>3</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="57">
         <v>35</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="19">
         <v>4</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="19">
         <v>3</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="57">
         <v>35</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="19">
         <v>5</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
+      <c r="B11" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="O11" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="19">
         <v>3</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="57">
         <v>35</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="19">
         <v>4</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="O12" s="10" t="s">
         <v>63</v>
       </c>
       <c r="P12" s="10">
         <v>0</v>
       </c>
-      <c r="Q12" s="18"/>
+      <c r="Q12" s="16"/>
       <c r="R12" s="10">
         <v>1</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -4293,14 +5699,26 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -4310,102 +5728,601 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="L16" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="O17" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
+      <c r="O21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="65"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="35">
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4423,6 +6340,24 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4430,10 +6365,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064AE008-59FD-4E5B-9BC0-E22A9BBCAEEE}">
-  <dimension ref="A3:S21"/>
+  <dimension ref="A3:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6:S12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4444,146 +6379,191 @@
     <col min="9" max="9" width="7.5703125" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="40"/>
-    </row>
-    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="69"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="20">
         <v>3</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="48">
         <v>35</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="59">
         <v>4</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="71" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="19">
         <v>3</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="45">
         <v>35</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="46">
         <v>3</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="73" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+    </row>
+    <row r="8" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -4591,10 +6571,18 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -4608,12 +6596,12 @@
       <c r="Q8" s="12">
         <v>35</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="29">
         <v>2</v>
       </c>
-      <c r="S8" s="26"/>
-    </row>
-    <row r="9" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="S8" s="24"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -4636,12 +6624,14 @@
         <v>3</v>
       </c>
       <c r="Q9" s="12"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="25" t="s">
+      <c r="R9" s="29"/>
+      <c r="S9" s="71" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -4657,128 +6647,181 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="19">
         <v>3</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="45">
         <v>10</v>
       </c>
-      <c r="R10" s="33">
-        <v>6</v>
-      </c>
-      <c r="S10" s="25" t="s">
+      <c r="R10" s="46">
+        <v>5</v>
+      </c>
+      <c r="S10" s="71" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="O11" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="19">
         <v>3</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="45">
         <v>35</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="46">
         <v>3</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="71" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+    </row>
+    <row r="12" spans="1:21" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="26"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="R12" s="30"/>
+      <c r="S12" s="24"/>
+    </row>
+    <row r="13" spans="1:21" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O15" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -4790,98 +6833,549 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="O16" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="O17" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+    </row>
+    <row r="18" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+    </row>
+    <row r="19" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="65"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="40">
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4899,6 +7393,29 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4906,10 +7423,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC99442-6ED8-4791-9340-3655DBBA79CB}">
-  <dimension ref="A3:S21"/>
+  <dimension ref="A3:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4924,123 +7441,163 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="68" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="40"/>
-    </row>
-    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="69"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="20">
         <v>4</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="48">
         <v>35</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="60">
         <v>5</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="54" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="O7" s="9" t="s">
@@ -5050,76 +7607,116 @@
         <v>3</v>
       </c>
       <c r="Q7" s="12"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25" t="s">
+      <c r="R7" s="22"/>
+      <c r="S7" s="54" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="19">
         <v>3</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="45">
         <v>10</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="53">
         <v>6</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="54" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="19">
         <v>4</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="45">
         <v>35</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="53">
         <v>4</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="54" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -5127,117 +7724,185 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="19">
         <v>4</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="45">
         <v>35</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="53">
         <v>4</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="54" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
+      <c r="B11" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="O11" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="19">
         <v>3</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="45">
         <v>35</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="53">
         <v>5</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="54" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="26"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="R12" s="25"/>
+      <c r="S12" s="24"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -5245,14 +7910,26 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
@@ -5262,109 +7939,655 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="O16" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="S16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="O17" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
+      <c r="O21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="65"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="34">
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -5377,6 +8600,21 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5386,8 +8624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D77BECE-C5E5-4AC8-A998-3520FF4F3F8F}">
   <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6:S12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5402,123 +8640,147 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="68" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="40"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
+      <c r="L6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="20">
         <v>3</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="48">
         <v>35</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="59">
         <v>2</v>
       </c>
-      <c r="S6" s="26"/>
-    </row>
-    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="S6" s="24"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="O7" s="9" t="s">
         <v>83</v>
       </c>
@@ -5528,10 +8790,10 @@
       <c r="Q7" s="12">
         <v>35</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="29">
         <v>3</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="54" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5549,23 +8811,27 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
+      <c r="L8" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="19">
         <v>3</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="45">
         <v>35</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="46">
         <v>1</v>
       </c>
-      <c r="S8" s="26"/>
-    </row>
-    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="S8" s="24"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -5581,70 +8847,86 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="19">
         <v>2</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="45">
         <v>35</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="46">
         <v>4</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="54" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="19">
         <v>2</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="45">
         <v>35</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="46">
         <v>4</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="54" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
       <c r="O11" s="9" t="s">
         <v>87</v>
       </c>
@@ -5654,104 +8936,132 @@
       <c r="Q11" s="12">
         <v>35</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="29">
         <v>2</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="54" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="10" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="O12" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="42">
         <v>3</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="43">
         <v>35</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="44">
         <v>2</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -5761,88 +9071,140 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>256</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>256</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="J21" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
